--- a/AllanDias.xlsx
+++ b/AllanDias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allan\Desktop\Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{605DD4E9-E5AF-4071-B535-5034ECE9A7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B750601-20DF-422C-A112-0C2C88B587F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="60" windowWidth="29040" windowHeight="15840" xr2:uid="{BBC9D146-6730-448C-B4AD-55FB52169DF2}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{BBC9D146-6730-448C-B4AD-55FB52169DF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Aula 1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>abc</t>
+  </si>
+  <si>
+    <t>Commit</t>
   </si>
 </sst>
 </file>
@@ -231,9 +234,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -245,14 +247,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -268,7 +270,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -567,7 +569,7 @@
   <dimension ref="C3:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="390" zoomScaleNormal="390" zoomScaleSheetLayoutView="265" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,12 +581,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="14"/>
-      <c r="E3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="11" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="3:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="1"/>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>0</v>
       </c>
       <c r="F4" t="s">
@@ -592,23 +595,23 @@
       </c>
     </row>
     <row r="5" spans="3:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="7"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="2"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="9"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="3:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
